--- a/data/customer_product_interactions.xlsx
+++ b/data/customer_product_interactions.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdanc\Google Drive\GitHub\orderSimulatoR\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="285" windowWidth="16230" windowHeight="12870"/>
+    <workbookView xWindow="11052" yWindow="288" windowWidth="16236" windowHeight="12876"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,9 +18,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$15:$AO$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="90" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="169">
   <si>
     <t>bike.id</t>
   </si>
@@ -532,18 +537,23 @@
     <t>Row Labels</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>K-means Cluster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -657,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -689,6 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,8 +999,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G1:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G1:G39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -1048,7 +1059,7 @@
     <field x="3"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="39">
+  <rowItems count="38">
     <i>
       <x/>
     </i>
@@ -1162,9 +1173,6 @@
     </i>
     <i r="2">
       <x v="27"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -1481,7 +1489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1495,45 +1503,45 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -1541,7 +1549,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>132</v>
       </c>
@@ -1639,7 +1647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>166</v>
       </c>
@@ -1737,7 +1745,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>122</v>
       </c>
@@ -1835,7 +1843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>122</v>
       </c>
@@ -1933,12 +1941,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -1950,7 +1958,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -1992,7 +2000,7 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
     </row>
-    <row r="15" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2155,7 @@
         <v>customer.id.30</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2311,7 +2319,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2475,7 +2483,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2635,7 +2643,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2795,7 +2803,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -2955,7 +2963,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -3115,7 +3123,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -3275,7 +3283,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
@@ -3435,7 +3443,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
@@ -3595,7 +3603,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10</v>
       </c>
@@ -3755,7 +3763,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>11</v>
       </c>
@@ -3915,7 +3923,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>12</v>
       </c>
@@ -4075,7 +4083,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13</v>
       </c>
@@ -4235,7 +4243,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -4395,7 +4403,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>15</v>
       </c>
@@ -4555,7 +4563,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>16</v>
       </c>
@@ -4715,7 +4723,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>17</v>
       </c>
@@ -4875,7 +4883,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18</v>
       </c>
@@ -5035,7 +5043,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>19</v>
       </c>
@@ -5195,7 +5203,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20</v>
       </c>
@@ -5355,7 +5363,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>21</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>22</v>
       </c>
@@ -5675,7 +5683,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>23</v>
       </c>
@@ -5835,7 +5843,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>24</v>
       </c>
@@ -5995,7 +6003,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>25</v>
       </c>
@@ -6155,7 +6163,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>26</v>
       </c>
@@ -6315,7 +6323,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>27</v>
       </c>
@@ -6475,7 +6483,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>28</v>
       </c>
@@ -6635,7 +6643,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>29</v>
       </c>
@@ -6795,7 +6803,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>30</v>
       </c>
@@ -6955,7 +6963,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>31</v>
       </c>
@@ -7115,7 +7123,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>32</v>
       </c>
@@ -7275,7 +7283,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>33</v>
       </c>
@@ -7435,7 +7443,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>34</v>
       </c>
@@ -7595,7 +7603,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>35</v>
       </c>
@@ -7755,7 +7763,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>36</v>
       </c>
@@ -7915,7 +7923,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>37</v>
       </c>
@@ -8075,7 +8083,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>38</v>
       </c>
@@ -8235,7 +8243,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>39</v>
       </c>
@@ -8395,7 +8403,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>40</v>
       </c>
@@ -8555,7 +8563,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>41</v>
       </c>
@@ -8715,7 +8723,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>42</v>
       </c>
@@ -8875,7 +8883,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>43</v>
       </c>
@@ -9035,7 +9043,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>44</v>
       </c>
@@ -9195,7 +9203,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>45</v>
       </c>
@@ -9355,7 +9363,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>46</v>
       </c>
@@ -9515,7 +9523,7 @@
         <v>1.0869565217391304E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>47</v>
       </c>
@@ -9675,7 +9683,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>48</v>
       </c>
@@ -9835,7 +9843,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>49</v>
       </c>
@@ -9995,7 +10003,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>50</v>
       </c>
@@ -10155,7 +10163,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>51</v>
       </c>
@@ -10315,7 +10323,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>52</v>
       </c>
@@ -10475,7 +10483,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>53</v>
       </c>
@@ -10635,7 +10643,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>54</v>
       </c>
@@ -10795,7 +10803,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>55</v>
       </c>
@@ -10955,7 +10963,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>56</v>
       </c>
@@ -11115,7 +11123,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>57</v>
       </c>
@@ -11275,7 +11283,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>58</v>
       </c>
@@ -11435,7 +11443,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>59</v>
       </c>
@@ -11595,7 +11603,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>60</v>
       </c>
@@ -11755,7 +11763,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>61</v>
       </c>
@@ -11915,7 +11923,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>62</v>
       </c>
@@ -12075,7 +12083,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>63</v>
       </c>
@@ -12235,7 +12243,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>64</v>
       </c>
@@ -12395,7 +12403,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>65</v>
       </c>
@@ -12555,7 +12563,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>66</v>
       </c>
@@ -12719,7 +12727,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>67</v>
       </c>
@@ -12879,7 +12887,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>68</v>
       </c>
@@ -13039,7 +13047,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>69</v>
       </c>
@@ -13199,7 +13207,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>70</v>
       </c>
@@ -13359,7 +13367,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>71</v>
       </c>
@@ -13519,7 +13527,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>72</v>
       </c>
@@ -13679,7 +13687,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>73</v>
       </c>
@@ -13839,7 +13847,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>74</v>
       </c>
@@ -13999,7 +14007,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>75</v>
       </c>
@@ -14159,7 +14167,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>76</v>
       </c>
@@ -14319,7 +14327,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>77</v>
       </c>
@@ -14479,7 +14487,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>78</v>
       </c>
@@ -14639,7 +14647,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>79</v>
       </c>
@@ -14799,7 +14807,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>80</v>
       </c>
@@ -14959,7 +14967,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>81</v>
       </c>
@@ -15119,7 +15127,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>82</v>
       </c>
@@ -15279,7 +15287,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>83</v>
       </c>
@@ -15439,7 +15447,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>84</v>
       </c>
@@ -15599,7 +15607,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>85</v>
       </c>
@@ -15759,7 +15767,7 @@
         <v>1.8627450980392157E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>86</v>
       </c>
@@ -15919,7 +15927,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>87</v>
       </c>
@@ -16079,7 +16087,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>88</v>
       </c>
@@ -16239,7 +16247,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>89</v>
       </c>
@@ -16399,7 +16407,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>90</v>
       </c>
@@ -16559,7 +16567,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>91</v>
       </c>
@@ -16719,7 +16727,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>92</v>
       </c>
@@ -16879,7 +16887,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>93</v>
       </c>
@@ -17039,7 +17047,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>94</v>
       </c>
@@ -17199,7 +17207,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>95</v>
       </c>
@@ -17359,7 +17367,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>96</v>
       </c>
@@ -17519,7 +17527,7 @@
         <v>9.8572037510656439E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>97</v>
       </c>
@@ -17844,21 +17852,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -17891,11 +17900,11 @@
       <c r="G2" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="H2" t="s">
-        <v>169</v>
+      <c r="H2" s="19" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -17912,7 +17921,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -17929,10 +17938,10 @@
         <v>147</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -17949,10 +17958,10 @@
         <v>145</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -17969,10 +17978,10 @@
         <v>137</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -17989,10 +17998,10 @@
         <v>151</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -18009,10 +18018,10 @@
         <v>142</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -18029,10 +18038,10 @@
         <v>144</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -18049,10 +18058,10 @@
         <v>156</v>
       </c>
       <c r="H10" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -18069,10 +18078,10 @@
         <v>149</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -18089,10 +18098,10 @@
         <v>153</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -18109,10 +18118,10 @@
         <v>157</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -18129,10 +18138,10 @@
         <v>160</v>
       </c>
       <c r="H14" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -18149,7 +18158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -18166,7 +18175,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -18183,10 +18192,10 @@
         <v>135</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -18203,10 +18212,10 @@
         <v>134</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -18223,10 +18232,10 @@
         <v>163</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -18243,7 +18252,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -18260,10 +18269,10 @@
         <v>141</v>
       </c>
       <c r="H21" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -18280,7 +18289,7 @@
         <v>143</v>
       </c>
       <c r="H22" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -18334,7 +18343,7 @@
         <v>138</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -18353,8 +18362,8 @@
       <c r="G26" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="H26">
-        <v>3</v>
+      <c r="H26" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -18373,8 +18382,8 @@
       <c r="G27" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="H27">
-        <v>3</v>
+      <c r="H27" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -18393,8 +18402,8 @@
       <c r="G28" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H28">
-        <v>3</v>
+      <c r="H28" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -18413,8 +18422,8 @@
       <c r="G29" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="H29">
-        <v>3</v>
+      <c r="H29" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -18433,8 +18442,8 @@
       <c r="G30" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="H30">
-        <v>3</v>
+      <c r="H30" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -18454,73 +18463,68 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G32" s="18" t="s">
         <v>155</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G33" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="H33">
-        <v>2</v>
+      <c r="H33" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G34" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="H34">
-        <v>2</v>
+      <c r="H34" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G35" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H35">
-        <v>2</v>
+      <c r="H35" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G36" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="H36">
-        <v>2</v>
+      <c r="H36" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G37" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="H37">
-        <v>2</v>
+      <c r="H37" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G38" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="H38">
-        <v>2</v>
+      <c r="H38" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G39" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G40" s="16" t="s">
-        <v>168</v>
+      <c r="H39" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
